--- a/data_13_9/not_created_1.xlsx
+++ b/data_13_9/not_created_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StarAward\final\starwar_v2\data\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StarAward\final\tool\tool_v2\data_13_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F043ADB7-94A8-44F1-BEAC-867370C05C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE128C70-C24B-418C-9B7F-D5B2FA1EE744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2147,7 +2147,7 @@
         <v>2026</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>2026</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>2026</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2026</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>2026</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>2026</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>2026</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>2026</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>2026</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>2026</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>2026</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>2026</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>2026</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>2026</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>2026</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>2026</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>2026</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>2026</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>2026</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>2026</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>2026</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>2026</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>2026</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>2026</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>2026</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>2026</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>2026</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>2026</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>2026</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3857,8 +3857,8 @@
       <c r="N31" s="2">
         <v>2026</v>
       </c>
-      <c r="O31" s="2">
-        <v>0</v>
+      <c r="O31">
+        <v>1</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>

--- a/data_13_9/not_created_1.xlsx
+++ b/data_13_9/not_created_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StarAward\final\tool\tool_v2\data_13_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE128C70-C24B-418C-9B7F-D5B2FA1EE744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7E6DD9-A3EC-40D1-B039-9C15FC2FB0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1673,7 +1673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,6 +1685,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1725,17 +1733,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2038,11 +2049,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="I122" workbookViewId="0">
+      <selection activeCell="Q126" sqref="Q126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -7575,7 +7590,7 @@
         <v>2026</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -9345,12 +9360,12 @@
         <v>2026</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
-      <c r="Q124" t="s">
+      <c r="Q124" s="3" t="s">
         <v>494</v>
       </c>
       <c r="R124">
@@ -9758,7 +9773,7 @@
         <v>2026</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -9817,7 +9832,7 @@
         <v>2026</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9876,7 +9891,7 @@
         <v>2026</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -9935,12 +9950,12 @@
         <v>2026</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P134">
         <v>0</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="Q134" s="3" t="s">
         <v>533</v>
       </c>
       <c r="R134">
@@ -9994,7 +10009,7 @@
         <v>2026</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -10053,7 +10068,7 @@
         <v>2026</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -10171,7 +10186,7 @@
         <v>2026</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -10187,6 +10202,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q134" r:id="rId1" xr:uid="{DAA1D7D4-CE85-485D-9839-91DE568EE6EE}"/>
+    <hyperlink ref="Q124" r:id="rId2" xr:uid="{BD61B6D5-2334-4104-8A07-4B985ED5FCC6}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>